--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Install\Cloud\Работа верстка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -234,13 +234,31 @@
   </si>
   <si>
     <t>карта</t>
+  </si>
+  <si>
+    <t>1. milancosmetics_1170px_glavnaya_02.03_v6.psd</t>
+  </si>
+  <si>
+    <t>index-page.html</t>
+  </si>
+  <si>
+    <t>2. milancosmetics_1170px_категории.psd</t>
+  </si>
+  <si>
+    <t>category.html</t>
+  </si>
+  <si>
+    <t>3. milancosmetics_1170px_линейки.psd</t>
+  </si>
+  <si>
+    <t>lines.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +283,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -312,10 +343,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,9 +360,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection sqref="A1:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,18 +662,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
     </row>
@@ -658,10 +694,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -669,80 +705,80 @@
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6"/>
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -750,10 +786,10 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1264,6 +1300,30 @@
       <c r="B101" s="7">
         <f>SUM(B3:B100)</f>
         <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>lines.html</t>
+  </si>
+  <si>
+    <t>написать скрипт определяющий смещение балуна</t>
+  </si>
+  <si>
+    <t>4. milancosmetics_1170px_товары.psd</t>
+  </si>
+  <si>
+    <t>products.html</t>
   </si>
 </sst>
 </file>
@@ -644,16 +653,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
@@ -797,40 +807,40 @@
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="9">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1276,10 +1286,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>66</v>
       </c>
@@ -1287,13 +1297,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>70</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>72</v>
       </c>
@@ -1318,12 +1328,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>74</v>
       </c>
       <c r="B107" t="s">
         <v>75</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -254,20 +254,20 @@
     <t>lines.html</t>
   </si>
   <si>
-    <t>написать скрипт определяющий смещение балуна</t>
-  </si>
-  <si>
     <t>4. milancosmetics_1170px_товары.psd</t>
   </si>
   <si>
     <t>products.html</t>
+  </si>
+  <si>
+    <t>написать скрипт определяющий смещение балуна  (размеры в норме)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +300,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,21 +321,17 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -341,39 +345,55 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
@@ -655,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B33" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,18 +692,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -691,7 +711,7 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
     </row>
@@ -699,124 +719,126 @@
       <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -824,7 +846,7 @@
       <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -832,7 +854,7 @@
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="4">
         <v>2.5</v>
       </c>
     </row>
@@ -840,511 +862,534 @@
       <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="2">
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="2">
         <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="6"/>
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="6"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="11">
         <v>404</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="14">
         <f>SUM(B3:B100)</f>
         <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" t="s">
         <v>77</v>
-      </c>
-      <c r="B108" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>написать скрипт определяющий смещение балуна  (размеры в норме)</t>
+  </si>
+  <si>
+    <t>card.html</t>
+  </si>
+  <si>
+    <t>5. milancosmetics_1170px_карточка-товара_7_13.04.psd</t>
+  </si>
+  <si>
+    <t>6. milancosmetics_1170px_обучение.psd</t>
+  </si>
+  <si>
+    <t>не согласована</t>
+  </si>
+  <si>
+    <t>7. milancosmetics_1170px_обучение-подробнее.psd</t>
+  </si>
+  <si>
+    <t>learn-more.html</t>
   </si>
 </sst>
 </file>
@@ -673,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B33" sqref="B32:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,32 +915,32 @@
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -1390,6 +1408,30 @@
       </c>
       <c r="B108" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,18 +1403,18 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>learn-more.html</t>
+  </si>
+  <si>
+    <t>8. milancosmetics_1170px_спецпредложения.psd</t>
+  </si>
+  <si>
+    <t>9. milancosmetics_1170px_новинки.psd</t>
+  </si>
+  <si>
+    <t>new-items.html</t>
+  </si>
+  <si>
+    <t>special-offers.html</t>
+  </si>
+  <si>
+    <t>заменить картинки 640*493</t>
+  </si>
+  <si>
+    <t>заменить картинки 2 и 3  390*620</t>
   </si>
 </sst>
 </file>
@@ -691,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,10 +1025,10 @@
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1019,10 +1037,10 @@
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1390,6 +1408,9 @@
       <c r="B106" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C106" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
@@ -1432,6 +1453,25 @@
       </c>
       <c r="B111" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>заменить картинки 2 и 3  390*620</t>
+  </si>
+  <si>
+    <t>bestseller.html</t>
+  </si>
+  <si>
+    <t>10. milancosmetics_1170px_хиты-продаж.psd</t>
+  </si>
+  <si>
+    <t>action.html</t>
+  </si>
+  <si>
+    <t>11. milancosmetics_1170px_акции_4.psd</t>
   </si>
 </sst>
 </file>
@@ -709,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,24 +1061,24 @@
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>1.5</v>
       </c>
     </row>
@@ -1075,10 +1087,10 @@
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1472,6 +1484,22 @@
       </c>
       <c r="C113" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -309,6 +309,57 @@
   </si>
   <si>
     <t>11. milancosmetics_1170px_акции_4.psd</t>
+  </si>
+  <si>
+    <t>action-more.html</t>
+  </si>
+  <si>
+    <t>12. milancosmetics_1170px_акция-подробнее_3.psd</t>
+  </si>
+  <si>
+    <t>news.html</t>
+  </si>
+  <si>
+    <t>13. milancosmetics_1170px_новости.psd</t>
+  </si>
+  <si>
+    <t>news-inner.html</t>
+  </si>
+  <si>
+    <t>14. milancosmetics_1170px_новости-подробнее.psd</t>
+  </si>
+  <si>
+    <t>15. milancosmetics_1170px_новости-подробнее-фото.psd</t>
+  </si>
+  <si>
+    <t>16. milancosmetics_1170px_новости-подробнее-видео.psd</t>
+  </si>
+  <si>
+    <t>17. milancosmetics_1170px_сотрудничество-с-нами.psd</t>
+  </si>
+  <si>
+    <t>18. milancosmetics_1170px_контакты.psd</t>
+  </si>
+  <si>
+    <t>19. milancosmetics_1170px_вакансии_3.psd</t>
+  </si>
+  <si>
+    <t>20. milancosmetics_1170px_где-купить-магазины.psd</t>
+  </si>
+  <si>
+    <t>21. milancosmetics_1170px_где-купить-интернет-магазины.psd</t>
+  </si>
+  <si>
+    <t>22. milancosmetics_1170px_страница-результата-поиска.psd</t>
+  </si>
+  <si>
+    <t>23. milancosmetics_1170px_карта-сайта.psd</t>
+  </si>
+  <si>
+    <t>24. milancosmetics_1170px_ошибка-404.psd</t>
+  </si>
+  <si>
+    <t>25. milancosmetics_1170px_окно-регистрации.psd</t>
   </si>
 </sst>
 </file>
@@ -721,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,10 +1150,10 @@
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1111,10 +1162,10 @@
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1125,24 +1176,24 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1500,6 +1551,85 @@
       </c>
       <c r="B115" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>25. milancosmetics_1170px_окно-регистрации.psd</t>
+  </si>
+  <si>
+    <t>news-inner-photo.html</t>
+  </si>
+  <si>
+    <t>news-inner-video.html</t>
+  </si>
+  <si>
+    <t>cooperation.html</t>
   </si>
 </sst>
 </file>
@@ -774,13 +783,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
@@ -1202,32 +1211,32 @@
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1236,16 +1245,16 @@
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1254,10 +1263,10 @@
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1581,15 +1590,24 @@
       <c r="A119" t="s">
         <v>101</v>
       </c>
+      <c r="B119" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>102</v>
       </c>
+      <c r="B120" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>103</v>
+      </c>
+      <c r="B121" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -444,15 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -465,7 +456,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -478,27 +482,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
@@ -783,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,20 +800,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -819,7 +825,7 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
     </row>
@@ -827,657 +833,651 @@
       <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="9">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
+      <c r="A96" s="7">
         <v>404</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="11"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="12">
         <f>SUM(B3:B100)</f>
         <v>78</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="9"/>
+    </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C106" t="s">
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" t="s">
         <v>74</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C107" t="s">
@@ -1496,18 +1496,18 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>76</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>80</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1515,6 +1515,7 @@
       <c r="A110" t="s">
         <v>81</v>
       </c>
+      <c r="B110" s="9"/>
       <c r="C110" t="s">
         <v>82</v>
       </c>
@@ -1523,7 +1524,7 @@
       <c r="A111" t="s">
         <v>83</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1531,7 +1532,7 @@
       <c r="A112" t="s">
         <v>85</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1539,7 +1540,7 @@
       <c r="A113" t="s">
         <v>86</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C113" t="s">
@@ -1550,7 +1551,7 @@
       <c r="A114" t="s">
         <v>92</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1558,7 +1559,7 @@
       <c r="A115" t="s">
         <v>94</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       <c r="A116" t="s">
         <v>96</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1574,7 +1575,7 @@
       <c r="A117" t="s">
         <v>98</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1582,7 +1583,7 @@
       <c r="A118" t="s">
         <v>100</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1590,7 +1591,7 @@
       <c r="A119" t="s">
         <v>101</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1598,7 +1599,7 @@
       <c r="A120" t="s">
         <v>102</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1606,7 +1607,7 @@
       <c r="A121" t="s">
         <v>103</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1614,41 +1615,49 @@
       <c r="A122" t="s">
         <v>104</v>
       </c>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>105</v>
       </c>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>106</v>
       </c>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>107</v>
       </c>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>108</v>
       </c>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>109</v>
       </c>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>111</v>
       </c>
+      <c r="B129" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -260,9 +260,6 @@
     <t>products.html</t>
   </si>
   <si>
-    <t>написать скрипт определяющий смещение балуна  (размеры в норме)</t>
-  </si>
-  <si>
     <t>card.html</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>6. milancosmetics_1170px_обучение.psd</t>
   </si>
   <si>
-    <t>не согласована</t>
-  </si>
-  <si>
     <t>7. milancosmetics_1170px_обучение-подробнее.psd</t>
   </si>
   <si>
@@ -369,6 +363,9 @@
   </si>
   <si>
     <t>cooperation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> узнать что с ховерами кнопок (2 шт.)</t>
   </si>
 </sst>
 </file>
@@ -786,7 +783,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,10 +927,10 @@
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>2</v>
       </c>
     </row>
@@ -941,40 +938,40 @@
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
     </row>
@@ -982,24 +979,24 @@
       <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>1.5</v>
       </c>
     </row>
@@ -1007,32 +1004,32 @@
       <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>0.5</v>
       </c>
     </row>
@@ -1097,10 +1094,10 @@
       <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1466,196 +1463,193 @@
       <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>80</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" t="s">
+      <c r="B111" s="10" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" t="s">
         <v>87</v>
-      </c>
-      <c r="C113" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B122" s="9"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B127" s="9"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B128" s="9"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B129" s="9"/>
     </row>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -287,9 +287,6 @@
     <t>special-offers.html</t>
   </si>
   <si>
-    <t>заменить картинки 640*493</t>
-  </si>
-  <si>
     <t>заменить картинки 2 и 3  390*620</t>
   </si>
   <si>
@@ -366,6 +363,15 @@
   </si>
   <si>
     <t xml:space="preserve"> узнать что с ховерами кнопок (2 шт.)</t>
+  </si>
+  <si>
+    <t>заменить бэкграунды 711*590</t>
+  </si>
+  <si>
+    <t>переделать размеры (врапер)</t>
+  </si>
+  <si>
+    <t>календарь семинаров</t>
   </si>
 </sst>
 </file>
@@ -780,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,370 +1097,375 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B46" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-    </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B48" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-    </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B52" s="10">
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-    </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B56" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-    </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B58" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B66" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
+      <c r="B70" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="9"/>
+      <c r="B72" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B74" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="9"/>
-    </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B77" s="9">
         <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="9"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B85" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="9"/>
-    </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="9">
-        <v>1</v>
-      </c>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B89" s="9">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B91" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="9"/>
-    </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4"/>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B95" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="9"/>
-    </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="4"/>
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
         <v>404</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B97" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="9"/>
-    </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B99" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="9"/>
-    </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="12">
-        <f>SUM(B3:B100)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
+      <c r="B102" s="12">
+        <f>SUM(B3:B101)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
@@ -1463,195 +1474,201 @@
       <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>80</v>
       </c>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C113" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B120" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>101</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>102</v>
-      </c>
-      <c r="B122" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B127" s="9"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B128" s="9"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>календарь семинаров</t>
+  </si>
+  <si>
+    <t>contacts.html</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1629,9 @@
       <c r="A123" t="s">
         <v>101</v>
       </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>contacts.html</t>
+  </si>
+  <si>
+    <t>vacancy.html</t>
+  </si>
+  <si>
+    <t>shops.html</t>
   </si>
 </sst>
 </file>
@@ -791,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,13 +1643,17 @@
       <c r="A124" t="s">
         <v>102</v>
       </c>
-      <c r="B124" s="9"/>
+      <c r="B124" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
@@ -797,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,10 +1287,10 @@
       <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1624,10 +1625,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>111</v>
       </c>
     </row>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -381,6 +381,21 @@
   </si>
   <si>
     <t>shops.html</t>
+  </si>
+  <si>
+    <t>online-store.html</t>
+  </si>
+  <si>
+    <t>search-page.html</t>
+  </si>
+  <si>
+    <t>sitemap.html</t>
+  </si>
+  <si>
+    <t>404.html</t>
+  </si>
+  <si>
+    <t>попап</t>
   </si>
 </sst>
 </file>
@@ -798,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,31 +1675,41 @@
       <c r="A126" t="s">
         <v>104</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>105</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>106</v>
       </c>
-      <c r="B128" s="9"/>
+      <c r="B128" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>108</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -395,7 +395,13 @@
     <t>404.html</t>
   </si>
   <si>
-    <t>попап</t>
+    <t>learn.html</t>
+  </si>
+  <si>
+    <t>попап под футером</t>
+  </si>
+  <si>
+    <t>шрифт в кнопках сделать тонким, проверить ховеры (бордовый)</t>
   </si>
 </sst>
 </file>
@@ -811,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1557,9 @@
       <c r="A111" t="s">
         <v>80</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -1708,7 +1716,12 @@
         <v>108</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>Оценка времени milancosmetics – 1170px</t>
   </si>
@@ -362,15 +362,9 @@
     <t>cooperation.html</t>
   </si>
   <si>
-    <t xml:space="preserve"> узнать что с ховерами кнопок (2 шт.)</t>
-  </si>
-  <si>
     <t>заменить бэкграунды 711*590</t>
   </si>
   <si>
-    <t>переделать размеры (врапер)</t>
-  </si>
-  <si>
     <t>календарь семинаров</t>
   </si>
   <si>
@@ -401,7 +395,7 @@
     <t>попап под футером</t>
   </si>
   <si>
-    <t>шрифт в кнопках сделать тонким, проверить ховеры (бордовый)</t>
+    <t>перенести скрипт карты в header</t>
   </si>
 </sst>
 </file>
@@ -468,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -509,9 +503,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -524,21 +527,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -817,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,16 +837,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>3</v>
       </c>
     </row>
@@ -851,23 +854,23 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -875,24 +878,24 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -900,7 +903,7 @@
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
@@ -908,7 +911,7 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
     </row>
@@ -916,7 +919,7 @@
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -924,7 +927,7 @@
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>2</v>
       </c>
     </row>
@@ -932,7 +935,7 @@
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
     </row>
@@ -940,7 +943,7 @@
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -948,7 +951,7 @@
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
     </row>
@@ -956,35 +959,35 @@
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -992,7 +995,7 @@
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1000,7 +1003,7 @@
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>2.5</v>
       </c>
     </row>
@@ -1008,24 +1011,24 @@
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -1033,24 +1036,24 @@
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -1058,7 +1061,7 @@
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1066,111 +1069,111 @@
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="9">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1178,45 +1181,45 @@
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1224,13 +1227,13 @@
       <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1238,24 +1241,24 @@
       <c r="A62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="10"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1263,7 +1266,7 @@
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -1271,255 +1274,255 @@
       <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="9"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="9"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="14">
         <v>404</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="10">
         <f>SUM(B3:B101)</f>
         <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C107" t="s">
@@ -1527,201 +1530,196 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>80</v>
-      </c>
-      <c r="B111" s="9" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>101</v>
-      </c>
-      <c r="B123" s="9" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>102</v>
-      </c>
-      <c r="B124" s="9" t="s">
+      <c r="C125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>103</v>
-      </c>
-      <c r="B125" s="9" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="9" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>105</v>
-      </c>
-      <c r="B127" s="9" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>106</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>107</v>
-      </c>
-      <c r="B129" s="9" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics.xlsx
+++ b/milancosmetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,7 +518,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28" customBuiltin="1"/>
@@ -820,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:B97"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,6 +1723,9 @@
         <v>122</v>
       </c>
     </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
